--- a/HtmlToExcel/bin/Debug/Script/script.xlsx
+++ b/HtmlToExcel/bin/Debug/Script/script.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="199">
   <si>
     <t>Html No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,586 @@
   <si>
     <t>Note內容</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a4</t>
+  </si>
+  <si>
+    <t>a5</t>
+  </si>
+  <si>
+    <t>a6</t>
+  </si>
+  <si>
+    <t>a7</t>
+  </si>
+  <si>
+    <t>a8</t>
+  </si>
+  <si>
+    <t>a9</t>
+  </si>
+  <si>
+    <t>a10</t>
+  </si>
+  <si>
+    <t>a11</t>
+  </si>
+  <si>
+    <t>a12</t>
+  </si>
+  <si>
+    <t>a13</t>
+  </si>
+  <si>
+    <t>a14</t>
+  </si>
+  <si>
+    <t>a15</t>
+  </si>
+  <si>
+    <t>a16</t>
+  </si>
+  <si>
+    <t>a17</t>
+  </si>
+  <si>
+    <t>a18</t>
+  </si>
+  <si>
+    <t>a19</t>
+  </si>
+  <si>
+    <t>a20</t>
+  </si>
+  <si>
+    <t>a21</t>
+  </si>
+  <si>
+    <t>a22</t>
+  </si>
+  <si>
+    <t>a23</t>
+  </si>
+  <si>
+    <t>a24</t>
+  </si>
+  <si>
+    <t>a25</t>
+  </si>
+  <si>
+    <t>a26</t>
+  </si>
+  <si>
+    <t>a27</t>
+  </si>
+  <si>
+    <t>a28</t>
+  </si>
+  <si>
+    <t>a29</t>
+  </si>
+  <si>
+    <t>a30</t>
+  </si>
+  <si>
+    <t>a31</t>
+  </si>
+  <si>
+    <t>a32</t>
+  </si>
+  <si>
+    <t>a33</t>
+  </si>
+  <si>
+    <t>a34</t>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK2</t>
+  </si>
+  <si>
+    <t>OK3</t>
+  </si>
+  <si>
+    <t>OK4</t>
+  </si>
+  <si>
+    <t>OK5</t>
+  </si>
+  <si>
+    <t>OK6</t>
+  </si>
+  <si>
+    <t>OK7</t>
+  </si>
+  <si>
+    <t>OK8</t>
+  </si>
+  <si>
+    <t>OK9</t>
+  </si>
+  <si>
+    <t>OK10</t>
+  </si>
+  <si>
+    <t>OK11</t>
+  </si>
+  <si>
+    <t>OK12</t>
+  </si>
+  <si>
+    <t>OK13</t>
+  </si>
+  <si>
+    <t>OK14</t>
+  </si>
+  <si>
+    <t>OK15</t>
+  </si>
+  <si>
+    <t>OK16</t>
+  </si>
+  <si>
+    <t>OK17</t>
+  </si>
+  <si>
+    <t>OK18</t>
+  </si>
+  <si>
+    <t>OK19</t>
+  </si>
+  <si>
+    <t>OK20</t>
+  </si>
+  <si>
+    <t>OK21</t>
+  </si>
+  <si>
+    <t>OK22</t>
+  </si>
+  <si>
+    <t>OK23</t>
+  </si>
+  <si>
+    <t>OK24</t>
+  </si>
+  <si>
+    <t>OK25</t>
+  </si>
+  <si>
+    <t>OK26</t>
+  </si>
+  <si>
+    <t>OK27</t>
+  </si>
+  <si>
+    <t>OK28</t>
+  </si>
+  <si>
+    <t>OK29</t>
+  </si>
+  <si>
+    <t>OK30</t>
+  </si>
+  <si>
+    <t>OK31</t>
+  </si>
+  <si>
+    <t>OK32</t>
+  </si>
+  <si>
+    <t>OK33</t>
+  </si>
+  <si>
+    <t>OK34</t>
+  </si>
+  <si>
+    <t>FAIL1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAIL2</t>
+  </si>
+  <si>
+    <t>FAIL3</t>
+  </si>
+  <si>
+    <t>FAIL4</t>
+  </si>
+  <si>
+    <t>FAIL5</t>
+  </si>
+  <si>
+    <t>FAIL6</t>
+  </si>
+  <si>
+    <t>FAIL7</t>
+  </si>
+  <si>
+    <t>FAIL8</t>
+  </si>
+  <si>
+    <t>FAIL9</t>
+  </si>
+  <si>
+    <t>FAIL10</t>
+  </si>
+  <si>
+    <t>FAIL11</t>
+  </si>
+  <si>
+    <t>FAIL12</t>
+  </si>
+  <si>
+    <t>FAIL13</t>
+  </si>
+  <si>
+    <t>FAIL14</t>
+  </si>
+  <si>
+    <t>FAIL15</t>
+  </si>
+  <si>
+    <t>FAIL16</t>
+  </si>
+  <si>
+    <t>FAIL17</t>
+  </si>
+  <si>
+    <t>FAIL18</t>
+  </si>
+  <si>
+    <t>FAIL19</t>
+  </si>
+  <si>
+    <t>FAIL20</t>
+  </si>
+  <si>
+    <t>FAIL21</t>
+  </si>
+  <si>
+    <t>FAIL22</t>
+  </si>
+  <si>
+    <t>FAIL23</t>
+  </si>
+  <si>
+    <t>FAIL24</t>
+  </si>
+  <si>
+    <t>FAIL25</t>
+  </si>
+  <si>
+    <t>FAIL26</t>
+  </si>
+  <si>
+    <t>FAIL27</t>
+  </si>
+  <si>
+    <t>FAIL28</t>
+  </si>
+  <si>
+    <t>FAIL29</t>
+  </si>
+  <si>
+    <t>FAIL30</t>
+  </si>
+  <si>
+    <t>FAIL31</t>
+  </si>
+  <si>
+    <t>FAIL32</t>
+  </si>
+  <si>
+    <t>FAIL33</t>
+  </si>
+  <si>
+    <t>FAIL34</t>
+  </si>
+  <si>
+    <t>Comment1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment5</t>
+  </si>
+  <si>
+    <t>Comment7</t>
+  </si>
+  <si>
+    <t>Comment9</t>
+  </si>
+  <si>
+    <t>Comment11</t>
+  </si>
+  <si>
+    <t>Comment13</t>
+  </si>
+  <si>
+    <t>Comment15</t>
+  </si>
+  <si>
+    <t>Comment17</t>
+  </si>
+  <si>
+    <t>B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>B13</t>
+  </si>
+  <si>
+    <t>B15</t>
+  </si>
+  <si>
+    <t>B17</t>
+  </si>
+  <si>
+    <t>B19</t>
+  </si>
+  <si>
+    <t>B21</t>
+  </si>
+  <si>
+    <t>B23</t>
+  </si>
+  <si>
+    <t>B25</t>
+  </si>
+  <si>
+    <t>B27</t>
+  </si>
+  <si>
+    <t>B29</t>
+  </si>
+  <si>
+    <t>B31</t>
+  </si>
+  <si>
+    <t>B33</t>
+  </si>
+  <si>
+    <t>Note1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note2</t>
+  </si>
+  <si>
+    <t>Note3</t>
+  </si>
+  <si>
+    <t>Note4</t>
+  </si>
+  <si>
+    <t>Note5</t>
+  </si>
+  <si>
+    <t>Note6</t>
+  </si>
+  <si>
+    <t>Note7</t>
+  </si>
+  <si>
+    <t>Note8</t>
+  </si>
+  <si>
+    <t>Note9</t>
+  </si>
+  <si>
+    <t>Note10</t>
+  </si>
+  <si>
+    <t>Note11</t>
+  </si>
+  <si>
+    <t>Note12</t>
+  </si>
+  <si>
+    <t>Note13</t>
+  </si>
+  <si>
+    <t>Note14</t>
+  </si>
+  <si>
+    <t>Note15</t>
+  </si>
+  <si>
+    <t>Note16</t>
+  </si>
+  <si>
+    <t>Note17</t>
+  </si>
+  <si>
+    <t>Note18</t>
+  </si>
+  <si>
+    <t>Note19</t>
+  </si>
+  <si>
+    <t>Note20</t>
+  </si>
+  <si>
+    <t>Note21</t>
+  </si>
+  <si>
+    <t>Note22</t>
+  </si>
+  <si>
+    <t>Note23</t>
+  </si>
+  <si>
+    <t>Note24</t>
+  </si>
+  <si>
+    <t>Note25</t>
+  </si>
+  <si>
+    <t>Note26</t>
+  </si>
+  <si>
+    <t>Note27</t>
+  </si>
+  <si>
+    <t>Note28</t>
+  </si>
+  <si>
+    <t>Note29</t>
+  </si>
+  <si>
+    <t>Note30</t>
+  </si>
+  <si>
+    <t>Note31</t>
+  </si>
+  <si>
+    <t>Note32</t>
+  </si>
+  <si>
+    <t>Note33</t>
+  </si>
+  <si>
+    <t>Note34</t>
+  </si>
+  <si>
+    <t>Comment3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment19</t>
+  </si>
+  <si>
+    <t>Comment21</t>
+  </si>
+  <si>
+    <t>Comment23</t>
+  </si>
+  <si>
+    <t>Comment25</t>
+  </si>
+  <si>
+    <t>Comment27</t>
+  </si>
+  <si>
+    <t>Comment29</t>
+  </si>
+  <si>
+    <t>Comment31</t>
+  </si>
+  <si>
+    <t>Comment33</t>
+  </si>
+  <si>
+    <t>B2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>B14</t>
+  </si>
+  <si>
+    <t>B16</t>
+  </si>
+  <si>
+    <t>B18</t>
+  </si>
+  <si>
+    <t>B20</t>
+  </si>
+  <si>
+    <t>B22</t>
+  </si>
+  <si>
+    <t>B24</t>
+  </si>
+  <si>
+    <t>B26</t>
+  </si>
+  <si>
+    <t>B28</t>
+  </si>
+  <si>
+    <t>B30</t>
+  </si>
+  <si>
+    <t>B32</t>
+  </si>
+  <si>
+    <t>B34</t>
   </si>
 </sst>
 </file>
@@ -82,7 +662,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,6 +672,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -125,7 +711,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -133,6 +719,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -436,187 +1034,1096 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="15" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="12" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="1" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="16.25" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="12" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="B24" s="4">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
         <v>26</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4">
+        <v>1</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4">
+        <v>1</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
